--- a/nes-lter-events-mvco-info.xlsx
+++ b/nes-lter-events-mvco-info.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-events-mvco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF5928-B4AA-47C1-9882-3E89A8110F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59AB731-2F72-4830-8A45-71582136BE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="3945" windowWidth="26700" windowHeight="11550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="3945" windowWidth="26700" windowHeight="11550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId2"/>
     <sheet name="Personnel" sheetId="2" r:id="rId3"/>
     <sheet name="Keywords" sheetId="3" r:id="rId4"/>
-    <sheet name="CustomUnits" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>attributeName</t>
   </si>
@@ -64,9 +63,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>micromolePerLiter</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
@@ -77,30 +73,6 @@
   </si>
   <si>
     <t>LTER Controlled Vocabulary</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>unitType</t>
-  </si>
-  <si>
-    <t>parentSI</t>
-  </si>
-  <si>
-    <t>multiplierToSI</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>amountOfSubstanceConcentration</t>
-  </si>
-  <si>
-    <t>molePerCubicMeter</t>
-  </si>
-  <si>
-    <t>micromole per liter</t>
   </si>
   <si>
     <t>givenName</t>
@@ -795,16 +767,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -812,16 +784,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -829,10 +801,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -840,44 +812,44 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -885,16 +857,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -902,16 +874,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -919,94 +891,94 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1022,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
@@ -1037,230 +1009,230 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1283,179 +1255,179 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1482,139 +1454,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>1E-3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
